--- a/data/trans_orig/IP18A03-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP18A03-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD4905D6-1B0B-4D79-9D81-9C3664D6F0DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A066CA2-E001-4BF9-A6DB-CF72622A9B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{ACF368CF-9F85-4E59-860D-97392FE36E3D}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{DB4CC908-432A-4957-9F06-47B4459DC0C2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -131,6 +131,63 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -188,63 +245,6 @@
     <t>75,22%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
     <t>35,64%</t>
   </si>
   <si>
@@ -350,6 +350,60 @@
     <t>57,2%</t>
   </si>
   <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
     <t>26,36%</t>
   </si>
   <si>
@@ -404,60 +458,6 @@
     <t>78,13%</t>
   </si>
   <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
     <t>34,17%</t>
   </si>
   <si>
@@ -569,6 +569,60 @@
     <t>52,21%</t>
   </si>
   <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
     <t>27,73%</t>
   </si>
   <si>
@@ -623,60 +677,6 @@
     <t>75,91%</t>
   </si>
   <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
     <t>35,11%</t>
   </si>
   <si>
@@ -734,214 +734,214 @@
     <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2023 (Tasa respuesta: 17,76%)</t>
   </si>
   <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
   </si>
 </sst>
 </file>
@@ -1333,7 +1333,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6DED72-1802-44D3-AD4E-FE08DFE2EDB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E90E014F-B1DA-4C55-9BD3-7A1A7CE01D78}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1606,10 +1606,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D7" s="7">
-        <v>60967</v>
+        <v>57642</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>31</v>
@@ -1621,10 +1621,10 @@
         <v>33</v>
       </c>
       <c r="H7" s="7">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I7" s="7">
-        <v>63067</v>
+        <v>64278</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>34</v>
@@ -1639,7 +1639,7 @@
         <v>185</v>
       </c>
       <c r="N7" s="7">
-        <v>124034</v>
+        <v>121920</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>37</v>
@@ -1657,10 +1657,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="D8" s="7">
-        <v>164760</v>
+        <v>140660</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>40</v>
@@ -1672,10 +1672,10 @@
         <v>42</v>
       </c>
       <c r="H8" s="7">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="I8" s="7">
-        <v>154905</v>
+        <v>117961</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>43</v>
@@ -1687,10 +1687,10 @@
         <v>45</v>
       </c>
       <c r="M8" s="7">
-        <v>476</v>
+        <v>384</v>
       </c>
       <c r="N8" s="7">
-        <v>319664</v>
+        <v>258621</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>46</v>
@@ -1708,10 +1708,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="D9" s="7">
-        <v>225727</v>
+        <v>198302</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>29</v>
@@ -1723,10 +1723,10 @@
         <v>29</v>
       </c>
       <c r="H9" s="7">
-        <v>322</v>
+        <v>269</v>
       </c>
       <c r="I9" s="7">
-        <v>217972</v>
+        <v>182239</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>29</v>
@@ -1738,10 +1738,10 @@
         <v>29</v>
       </c>
       <c r="M9" s="7">
-        <v>661</v>
+        <v>569</v>
       </c>
       <c r="N9" s="7">
-        <v>443698</v>
+        <v>380541</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>29</v>
@@ -1761,10 +1761,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D10" s="7">
-        <v>57642</v>
+        <v>60967</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>50</v>
@@ -1776,10 +1776,10 @@
         <v>52</v>
       </c>
       <c r="H10" s="7">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I10" s="7">
-        <v>64278</v>
+        <v>63067</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>53</v>
@@ -1794,7 +1794,7 @@
         <v>185</v>
       </c>
       <c r="N10" s="7">
-        <v>121920</v>
+        <v>124034</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>56</v>
@@ -1812,10 +1812,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="D11" s="7">
-        <v>140660</v>
+        <v>164760</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>59</v>
@@ -1827,10 +1827,10 @@
         <v>61</v>
       </c>
       <c r="H11" s="7">
-        <v>172</v>
+        <v>229</v>
       </c>
       <c r="I11" s="7">
-        <v>117961</v>
+        <v>154905</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>62</v>
@@ -1842,10 +1842,10 @@
         <v>64</v>
       </c>
       <c r="M11" s="7">
-        <v>384</v>
+        <v>476</v>
       </c>
       <c r="N11" s="7">
-        <v>258621</v>
+        <v>319664</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>65</v>
@@ -1863,10 +1863,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="D12" s="7">
-        <v>198302</v>
+        <v>225727</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>29</v>
@@ -1878,10 +1878,10 @@
         <v>29</v>
       </c>
       <c r="H12" s="7">
-        <v>269</v>
+        <v>322</v>
       </c>
       <c r="I12" s="7">
-        <v>182239</v>
+        <v>217972</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>29</v>
@@ -1893,10 +1893,10 @@
         <v>29</v>
       </c>
       <c r="M12" s="7">
-        <v>569</v>
+        <v>661</v>
       </c>
       <c r="N12" s="7">
-        <v>380541</v>
+        <v>443698</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>29</v>
@@ -2079,7 +2079,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C94429-F6B1-476C-B2F8-046D7CB3D612}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E6C88C-C8BD-415B-99C0-E6875915F83C}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2352,10 +2352,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D7" s="7">
-        <v>66202</v>
+        <v>72397</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>103</v>
@@ -2367,10 +2367,10 @@
         <v>105</v>
       </c>
       <c r="H7" s="7">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="I7" s="7">
-        <v>54625</v>
+        <v>73088</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>106</v>
@@ -2382,10 +2382,10 @@
         <v>108</v>
       </c>
       <c r="M7" s="7">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="N7" s="7">
-        <v>120827</v>
+        <v>145485</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>109</v>
@@ -2403,10 +2403,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>275</v>
+        <v>214</v>
       </c>
       <c r="D8" s="7">
-        <v>184983</v>
+        <v>155673</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>112</v>
@@ -2418,10 +2418,10 @@
         <v>114</v>
       </c>
       <c r="H8" s="7">
-        <v>254</v>
+        <v>205</v>
       </c>
       <c r="I8" s="7">
-        <v>179145</v>
+        <v>144722</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>115</v>
@@ -2433,10 +2433,10 @@
         <v>117</v>
       </c>
       <c r="M8" s="7">
-        <v>529</v>
+        <v>419</v>
       </c>
       <c r="N8" s="7">
-        <v>364128</v>
+        <v>300395</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>118</v>
@@ -2454,10 +2454,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>369</v>
+        <v>314</v>
       </c>
       <c r="D9" s="7">
-        <v>251185</v>
+        <v>228070</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>29</v>
@@ -2469,10 +2469,10 @@
         <v>29</v>
       </c>
       <c r="H9" s="7">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="I9" s="7">
-        <v>233770</v>
+        <v>217810</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>29</v>
@@ -2484,10 +2484,10 @@
         <v>29</v>
       </c>
       <c r="M9" s="7">
-        <v>701</v>
+        <v>618</v>
       </c>
       <c r="N9" s="7">
-        <v>484955</v>
+        <v>445880</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>29</v>
@@ -2507,10 +2507,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D10" s="7">
-        <v>72397</v>
+        <v>66202</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>121</v>
@@ -2522,10 +2522,10 @@
         <v>123</v>
       </c>
       <c r="H10" s="7">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="I10" s="7">
-        <v>73088</v>
+        <v>54625</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>124</v>
@@ -2537,10 +2537,10 @@
         <v>126</v>
       </c>
       <c r="M10" s="7">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="N10" s="7">
-        <v>145485</v>
+        <v>120827</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>127</v>
@@ -2558,10 +2558,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>214</v>
+        <v>275</v>
       </c>
       <c r="D11" s="7">
-        <v>155673</v>
+        <v>184983</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>130</v>
@@ -2573,10 +2573,10 @@
         <v>132</v>
       </c>
       <c r="H11" s="7">
-        <v>205</v>
+        <v>254</v>
       </c>
       <c r="I11" s="7">
-        <v>144722</v>
+        <v>179145</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>133</v>
@@ -2588,10 +2588,10 @@
         <v>135</v>
       </c>
       <c r="M11" s="7">
-        <v>419</v>
+        <v>529</v>
       </c>
       <c r="N11" s="7">
-        <v>300395</v>
+        <v>364128</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>136</v>
@@ -2609,10 +2609,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>314</v>
+        <v>369</v>
       </c>
       <c r="D12" s="7">
-        <v>228070</v>
+        <v>251185</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>29</v>
@@ -2624,10 +2624,10 @@
         <v>29</v>
       </c>
       <c r="H12" s="7">
-        <v>304</v>
+        <v>332</v>
       </c>
       <c r="I12" s="7">
-        <v>217810</v>
+        <v>233770</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>29</v>
@@ -2639,10 +2639,10 @@
         <v>29</v>
       </c>
       <c r="M12" s="7">
-        <v>618</v>
+        <v>701</v>
       </c>
       <c r="N12" s="7">
-        <v>445880</v>
+        <v>484955</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>29</v>
@@ -2825,7 +2825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E51E42-8D40-44C0-99DF-EF6986CEB7CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B17E698-4041-40DD-A759-E330A31042CF}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3098,10 +3098,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D7" s="7">
-        <v>67367</v>
+        <v>61276</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>176</v>
@@ -3113,10 +3113,10 @@
         <v>178</v>
       </c>
       <c r="H7" s="7">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I7" s="7">
-        <v>65108</v>
+        <v>61993</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>179</v>
@@ -3128,10 +3128,10 @@
         <v>181</v>
       </c>
       <c r="M7" s="7">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="N7" s="7">
-        <v>132475</v>
+        <v>123270</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>182</v>
@@ -3149,10 +3149,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D8" s="7">
-        <v>175537</v>
+        <v>164972</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>185</v>
@@ -3164,10 +3164,10 @@
         <v>187</v>
       </c>
       <c r="H8" s="7">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="I8" s="7">
-        <v>174728</v>
+        <v>152437</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>188</v>
@@ -3179,10 +3179,10 @@
         <v>190</v>
       </c>
       <c r="M8" s="7">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="N8" s="7">
-        <v>350265</v>
+        <v>317408</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>191</v>
@@ -3203,7 +3203,7 @@
         <v>328</v>
       </c>
       <c r="D9" s="7">
-        <v>242904</v>
+        <v>226248</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>29</v>
@@ -3215,10 +3215,10 @@
         <v>29</v>
       </c>
       <c r="H9" s="7">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="I9" s="7">
-        <v>239836</v>
+        <v>214430</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>29</v>
@@ -3230,10 +3230,10 @@
         <v>29</v>
       </c>
       <c r="M9" s="7">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="N9" s="7">
-        <v>482740</v>
+        <v>440678</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>29</v>
@@ -3253,10 +3253,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" s="7">
-        <v>61276</v>
+        <v>67367</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>194</v>
@@ -3268,10 +3268,10 @@
         <v>196</v>
       </c>
       <c r="H10" s="7">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I10" s="7">
-        <v>61993</v>
+        <v>65108</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>197</v>
@@ -3283,10 +3283,10 @@
         <v>199</v>
       </c>
       <c r="M10" s="7">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="N10" s="7">
-        <v>123270</v>
+        <v>132475</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>200</v>
@@ -3304,10 +3304,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D11" s="7">
-        <v>164972</v>
+        <v>175537</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>203</v>
@@ -3319,10 +3319,10 @@
         <v>205</v>
       </c>
       <c r="H11" s="7">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="I11" s="7">
-        <v>152437</v>
+        <v>174728</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>206</v>
@@ -3334,10 +3334,10 @@
         <v>208</v>
       </c>
       <c r="M11" s="7">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="N11" s="7">
-        <v>317408</v>
+        <v>350265</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>209</v>
@@ -3358,7 +3358,7 @@
         <v>328</v>
       </c>
       <c r="D12" s="7">
-        <v>226248</v>
+        <v>242904</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>29</v>
@@ -3370,10 +3370,10 @@
         <v>29</v>
       </c>
       <c r="H12" s="7">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="I12" s="7">
-        <v>214430</v>
+        <v>239836</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>29</v>
@@ -3385,10 +3385,10 @@
         <v>29</v>
       </c>
       <c r="M12" s="7">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="N12" s="7">
-        <v>440678</v>
+        <v>482740</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>29</v>
@@ -3571,7 +3571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B9F4F06-FA70-4CE4-9468-661C050B40F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A26A6C-C468-481C-A041-78FF441EB25B}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3689,10 +3689,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D4" s="7">
-        <v>12552</v>
+        <v>18786</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>231</v>
@@ -3704,10 +3704,10 @@
         <v>233</v>
       </c>
       <c r="H4" s="7">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I4" s="7">
-        <v>8005</v>
+        <v>14472</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>234</v>
@@ -3719,10 +3719,10 @@
         <v>236</v>
       </c>
       <c r="M4" s="7">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="N4" s="7">
-        <v>20557</v>
+        <v>33257</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>237</v>
@@ -3740,10 +3740,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D5" s="7">
-        <v>14991</v>
+        <v>8757</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>240</v>
@@ -3755,10 +3755,10 @@
         <v>242</v>
       </c>
       <c r="H5" s="7">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I5" s="7">
-        <v>14697</v>
+        <v>8230</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>243</v>
@@ -3770,10 +3770,10 @@
         <v>245</v>
       </c>
       <c r="M5" s="7">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="N5" s="7">
-        <v>29688</v>
+        <v>16988</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>246</v>
@@ -3844,49 +3844,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D7" s="7">
-        <v>20995</v>
+        <v>25834</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>249</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>34</v>
+      </c>
+      <c r="I7" s="7">
+        <v>22709</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="H7" s="7">
-        <v>16</v>
-      </c>
-      <c r="I7" s="7">
-        <v>12861</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>70</v>
+      </c>
+      <c r="N7" s="7">
+        <v>48544</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="M7" s="7">
-        <v>44</v>
-      </c>
-      <c r="N7" s="7">
-        <v>33856</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3895,49 +3895,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D8" s="7">
-        <v>39707</v>
+        <v>12346</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H8" s="7">
+        <v>18</v>
+      </c>
+      <c r="I8" s="7">
+        <v>12027</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="H8" s="7">
-        <v>43</v>
-      </c>
-      <c r="I8" s="7">
-        <v>29623</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>35</v>
+      </c>
+      <c r="N8" s="7">
+        <v>24373</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="M8" s="7">
-        <v>93</v>
-      </c>
-      <c r="N8" s="7">
-        <v>69330</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3946,10 +3946,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="D9" s="7">
-        <v>60702</v>
+        <v>38180</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>29</v>
@@ -3961,10 +3961,10 @@
         <v>29</v>
       </c>
       <c r="H9" s="7">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I9" s="7">
-        <v>42484</v>
+        <v>34736</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>29</v>
@@ -3976,10 +3976,10 @@
         <v>29</v>
       </c>
       <c r="M9" s="7">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="N9" s="7">
-        <v>103186</v>
+        <v>72917</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>29</v>
@@ -3999,49 +3999,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="D10" s="7">
-        <v>7453</v>
+        <v>42373</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>39</v>
+      </c>
+      <c r="I10" s="7">
+        <v>26620</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="H10" s="7">
-        <v>17</v>
-      </c>
-      <c r="I10" s="7">
-        <v>11493</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>95</v>
+      </c>
+      <c r="N10" s="7">
+        <v>68993</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="M10" s="7">
-        <v>27</v>
-      </c>
-      <c r="N10" s="7">
-        <v>18947</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,49 +4050,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D11" s="7">
-        <v>30727</v>
+        <v>18329</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>20</v>
+      </c>
+      <c r="I11" s="7">
+        <v>15864</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="H11" s="7">
-        <v>35</v>
-      </c>
-      <c r="I11" s="7">
-        <v>23243</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>42</v>
+      </c>
+      <c r="N11" s="7">
+        <v>34193</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="M11" s="7">
-        <v>78</v>
-      </c>
-      <c r="N11" s="7">
-        <v>53970</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,10 +4101,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="D12" s="7">
-        <v>38180</v>
+        <v>60702</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>29</v>
@@ -4116,10 +4116,10 @@
         <v>29</v>
       </c>
       <c r="H12" s="7">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I12" s="7">
-        <v>34736</v>
+        <v>42484</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>29</v>
@@ -4131,10 +4131,10 @@
         <v>29</v>
       </c>
       <c r="M12" s="7">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="N12" s="7">
-        <v>72917</v>
+        <v>103186</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>29</v>
@@ -4154,49 +4154,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="D13" s="7">
-        <v>41000</v>
+        <v>86993</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>181</v>
+        <v>283</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>99</v>
+      </c>
+      <c r="I13" s="7">
+        <v>63801</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="H13" s="7">
-        <v>48</v>
-      </c>
-      <c r="I13" s="7">
-        <v>32360</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>231</v>
+      </c>
+      <c r="N13" s="7">
+        <v>150794</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="M13" s="7">
-        <v>113</v>
-      </c>
-      <c r="N13" s="7">
-        <v>73360</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,13 +4205,13 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="D14" s="7">
-        <v>85425</v>
+        <v>39432</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>189</v>
+        <v>292</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>293</v>
@@ -4220,10 +4220,10 @@
         <v>294</v>
       </c>
       <c r="H14" s="7">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="I14" s="7">
-        <v>67563</v>
+        <v>36122</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>295</v>
@@ -4235,10 +4235,10 @@
         <v>297</v>
       </c>
       <c r="M14" s="7">
-        <v>228</v>
+        <v>110</v>
       </c>
       <c r="N14" s="7">
-        <v>152988</v>
+        <v>75554</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>298</v>

--- a/data/trans_orig/IP18A03-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP18A03-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A066CA2-E001-4BF9-A6DB-CF72622A9B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A1236EA-B8F4-4732-829E-AAB1D380ABF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{DB4CC908-432A-4957-9F06-47B4459DC0C2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{66C9DC7E-84B9-401F-A899-312D603C329B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="368">
   <si>
     <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2007 (Tasa respuesta: 87,02%)</t>
   </si>
@@ -68,841 +68,1069 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2012 (Tasa respuesta: 94,0%)</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2015 (Tasa respuesta: 91,02%)</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
   </si>
   <si>
     <t>46,09%</t>
   </si>
   <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
   </si>
   <si>
     <t>53,91%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2012 (Tasa respuesta: 94,0%)</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2015 (Tasa respuesta: 91,02%)</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
   </si>
   <si>
     <t>63,85%</t>
   </si>
   <si>
-    <t>55,27%</t>
+    <t>54,41%</t>
   </si>
   <si>
     <t>71,3%</t>
@@ -911,37 +1139,10 @@
     <t>66,62%</t>
   </si>
   <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
   </si>
 </sst>
 </file>
@@ -952,7 +1153,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1048,39 +1249,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1132,7 +1333,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1243,13 +1444,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1258,6 +1452,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1322,19 +1523,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E90E014F-B1DA-4C55-9BD3-7A1A7CE01D78}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357D1AAF-6E55-470A-81CF-AA01EB099A17}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1451,10 +1672,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>156</v>
+        <v>57</v>
       </c>
       <c r="D4" s="7">
-        <v>103803</v>
+        <v>37567</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1466,10 +1687,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>145</v>
+        <v>69</v>
       </c>
       <c r="I4" s="7">
-        <v>95086</v>
+        <v>45537</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1481,10 +1702,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>301</v>
+        <v>126</v>
       </c>
       <c r="N4" s="7">
-        <v>198890</v>
+        <v>83104</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1502,10 +1723,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="D5" s="7">
-        <v>96183</v>
+        <v>70114</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1517,10 +1738,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="I5" s="7">
-        <v>102721</v>
+        <v>56177</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1532,19 +1753,19 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>300</v>
+        <v>191</v>
       </c>
       <c r="N5" s="7">
-        <v>198903</v>
+        <v>126291</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1553,102 +1774,102 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>300</v>
+        <v>162</v>
       </c>
       <c r="D6" s="7">
-        <v>199986</v>
+        <v>107681</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>301</v>
+        <v>155</v>
       </c>
       <c r="I6" s="7">
-        <v>197807</v>
+        <v>101714</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>601</v>
+        <v>317</v>
       </c>
       <c r="N6" s="7">
-        <v>397793</v>
+        <v>209395</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>88</v>
+        <v>237</v>
       </c>
       <c r="D7" s="7">
-        <v>57642</v>
+        <v>157786</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>97</v>
+        <v>210</v>
       </c>
       <c r="I7" s="7">
-        <v>64278</v>
+        <v>141724</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>185</v>
+        <v>447</v>
       </c>
       <c r="N7" s="7">
-        <v>121920</v>
+        <v>299511</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1657,49 +1878,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>212</v>
+        <v>115</v>
       </c>
       <c r="D8" s="7">
-        <v>140660</v>
+        <v>75616</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="I8" s="7">
-        <v>117961</v>
+        <v>89862</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>384</v>
+        <v>251</v>
       </c>
       <c r="N8" s="7">
-        <v>258621</v>
+        <v>165478</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1708,102 +1929,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>300</v>
+        <v>352</v>
       </c>
       <c r="D9" s="7">
-        <v>198302</v>
+        <v>233402</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>269</v>
+        <v>346</v>
       </c>
       <c r="I9" s="7">
-        <v>182239</v>
+        <v>231586</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>569</v>
+        <v>698</v>
       </c>
       <c r="N9" s="7">
-        <v>380541</v>
+        <v>464989</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="D10" s="7">
-        <v>60967</v>
+        <v>83002</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="I10" s="7">
-        <v>63067</v>
+        <v>69555</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>185</v>
+        <v>227</v>
       </c>
       <c r="N10" s="7">
-        <v>124034</v>
+        <v>152557</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1812,49 +2033,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>247</v>
+        <v>49</v>
       </c>
       <c r="D11" s="7">
-        <v>164760</v>
+        <v>32669</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="I11" s="7">
-        <v>154905</v>
+        <v>36475</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>476</v>
+        <v>104</v>
       </c>
       <c r="N11" s="7">
-        <v>319664</v>
+        <v>69144</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1863,102 +2084,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>339</v>
+        <v>173</v>
       </c>
       <c r="D12" s="7">
-        <v>225727</v>
+        <v>115671</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>322</v>
+        <v>158</v>
       </c>
       <c r="I12" s="7">
-        <v>217972</v>
+        <v>106030</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>661</v>
+        <v>331</v>
       </c>
       <c r="N12" s="7">
-        <v>443698</v>
+        <v>221701</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>336</v>
+        <v>185</v>
       </c>
       <c r="D13" s="7">
-        <v>222412</v>
+        <v>123247</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>335</v>
+        <v>175</v>
       </c>
       <c r="I13" s="7">
-        <v>222431</v>
+        <v>118769</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>671</v>
+        <v>360</v>
       </c>
       <c r="N13" s="7">
-        <v>444844</v>
+        <v>242016</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1967,49 +2188,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>603</v>
+        <v>67</v>
       </c>
       <c r="D14" s="7">
-        <v>401602</v>
+        <v>44013</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>557</v>
+        <v>58</v>
       </c>
       <c r="I14" s="7">
-        <v>375587</v>
+        <v>39918</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1160</v>
+        <v>125</v>
       </c>
       <c r="N14" s="7">
-        <v>777188</v>
+        <v>83931</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2018,55 +2239,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>252</v>
+      </c>
+      <c r="D15" s="7">
+        <v>167260</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>233</v>
+      </c>
+      <c r="I15" s="7">
+        <v>158687</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>485</v>
+      </c>
+      <c r="N15" s="7">
+        <v>325947</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>603</v>
+      </c>
+      <c r="D16" s="7">
+        <v>401602</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="7">
+        <v>557</v>
+      </c>
+      <c r="I16" s="7">
+        <v>375587</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M16" s="7">
+        <v>1160</v>
+      </c>
+      <c r="N16" s="7">
+        <v>777188</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>336</v>
+      </c>
+      <c r="D17" s="7">
+        <v>222412</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="7">
+        <v>335</v>
+      </c>
+      <c r="I17" s="7">
+        <v>222431</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M17" s="7">
+        <v>671</v>
+      </c>
+      <c r="N17" s="7">
+        <v>444844</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>939</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>624014</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>892</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>598018</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>1831</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1222032</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>29</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2079,8 +2461,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E6C88C-C8BD-415B-99C0-E6875915F83C}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DC79B3-D784-4BC2-9B5C-3A4B7BF1C5BD}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2096,7 +2478,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2197,49 +2579,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="D4" s="7">
-        <v>104793</v>
+        <v>67303</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>156</v>
+        <v>99</v>
       </c>
       <c r="I4" s="7">
-        <v>104627</v>
+        <v>65551</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>305</v>
+        <v>195</v>
       </c>
       <c r="N4" s="7">
-        <v>209421</v>
+        <v>132854</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2248,49 +2630,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>180</v>
+        <v>106</v>
       </c>
       <c r="D5" s="7">
-        <v>128185</v>
+        <v>75145</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="I5" s="7">
-        <v>111811</v>
+        <v>76011</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>349</v>
+        <v>218</v>
       </c>
       <c r="N5" s="7">
-        <v>239995</v>
+        <v>151156</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2299,102 +2681,102 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>329</v>
+        <v>202</v>
       </c>
       <c r="D6" s="7">
-        <v>232978</v>
+        <v>142448</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>325</v>
+        <v>211</v>
       </c>
       <c r="I6" s="7">
-        <v>216438</v>
+        <v>141562</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>654</v>
+        <v>413</v>
       </c>
       <c r="N6" s="7">
-        <v>449416</v>
+        <v>284010</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>100</v>
+        <v>238</v>
       </c>
       <c r="D7" s="7">
-        <v>72397</v>
+        <v>173541</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>99</v>
+        <v>208</v>
       </c>
       <c r="I7" s="7">
-        <v>73088</v>
+        <v>144059</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>199</v>
+        <v>446</v>
       </c>
       <c r="N7" s="7">
-        <v>145485</v>
+        <v>317600</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2403,49 +2785,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>214</v>
+        <v>115</v>
       </c>
       <c r="D8" s="7">
-        <v>155673</v>
+        <v>81615</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>205</v>
+        <v>111</v>
       </c>
       <c r="I8" s="7">
-        <v>144722</v>
+        <v>77871</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
-        <v>419</v>
+        <v>226</v>
       </c>
       <c r="N8" s="7">
-        <v>300395</v>
+        <v>159486</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2454,102 +2836,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="D9" s="7">
-        <v>228070</v>
+        <v>255156</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="I9" s="7">
-        <v>217810</v>
+        <v>221930</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>618</v>
+        <v>672</v>
       </c>
       <c r="N9" s="7">
-        <v>445880</v>
+        <v>477086</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>94</v>
+        <v>161</v>
       </c>
       <c r="D10" s="7">
-        <v>66202</v>
+        <v>110807</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="I10" s="7">
-        <v>54625</v>
+        <v>107513</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
-        <v>172</v>
+        <v>314</v>
       </c>
       <c r="N10" s="7">
-        <v>120827</v>
+        <v>218320</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2558,49 +2940,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>275</v>
+        <v>56</v>
       </c>
       <c r="D11" s="7">
-        <v>184983</v>
+        <v>40375</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="H11" s="7">
-        <v>254</v>
+        <v>61</v>
       </c>
       <c r="I11" s="7">
-        <v>179145</v>
+        <v>43617</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="M11" s="7">
-        <v>529</v>
+        <v>117</v>
       </c>
       <c r="N11" s="7">
-        <v>364128</v>
+        <v>83992</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2609,102 +2991,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>369</v>
+        <v>217</v>
       </c>
       <c r="D12" s="7">
-        <v>251185</v>
+        <v>151182</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>332</v>
+        <v>214</v>
       </c>
       <c r="I12" s="7">
-        <v>233770</v>
+        <v>151130</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>701</v>
+        <v>431</v>
       </c>
       <c r="N12" s="7">
-        <v>484955</v>
+        <v>302312</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>343</v>
+        <v>174</v>
       </c>
       <c r="D13" s="7">
-        <v>243392</v>
+        <v>117190</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
-        <v>333</v>
+        <v>168</v>
       </c>
       <c r="I13" s="7">
-        <v>232341</v>
+        <v>118556</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
-        <v>676</v>
+        <v>342</v>
       </c>
       <c r="N13" s="7">
-        <v>475733</v>
+        <v>235745</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2713,49 +3095,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>669</v>
+        <v>66</v>
       </c>
       <c r="D14" s="7">
-        <v>468840</v>
+        <v>46257</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="H14" s="7">
-        <v>628</v>
+        <v>49</v>
       </c>
       <c r="I14" s="7">
-        <v>435678</v>
+        <v>34842</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="M14" s="7">
-        <v>1297</v>
+        <v>115</v>
       </c>
       <c r="N14" s="7">
-        <v>904518</v>
+        <v>81099</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2764,55 +3146,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>240</v>
+      </c>
+      <c r="D15" s="7">
+        <v>163447</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>217</v>
+      </c>
+      <c r="I15" s="7">
+        <v>153398</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>457</v>
+      </c>
+      <c r="N15" s="7">
+        <v>316844</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>669</v>
+      </c>
+      <c r="D16" s="7">
+        <v>468840</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H16" s="7">
+        <v>628</v>
+      </c>
+      <c r="I16" s="7">
+        <v>435678</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="M16" s="7">
+        <v>1297</v>
+      </c>
+      <c r="N16" s="7">
+        <v>904518</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>343</v>
+      </c>
+      <c r="D17" s="7">
+        <v>243392</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H17" s="7">
+        <v>333</v>
+      </c>
+      <c r="I17" s="7">
+        <v>232341</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="M17" s="7">
+        <v>676</v>
+      </c>
+      <c r="N17" s="7">
+        <v>475733</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1012</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>712232</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>961</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>668019</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>1973</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1380251</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>29</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2825,8 +3368,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B17E698-4041-40DD-A759-E330A31042CF}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CE1348E-FE49-4D46-BB3C-B07764BC3430}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2842,7 +3385,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2943,49 +3486,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="D4" s="7">
-        <v>107266</v>
+        <v>42647</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>160</v>
+        <v>201</v>
       </c>
       <c r="H4" s="7">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="I4" s="7">
-        <v>99018</v>
+        <v>47729</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="M4" s="7">
-        <v>319</v>
+        <v>143</v>
       </c>
       <c r="N4" s="7">
-        <v>206284</v>
+        <v>90376</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>166</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2994,49 +3537,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="D5" s="7">
-        <v>95483</v>
+        <v>75747</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>167</v>
+        <v>208</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>169</v>
+        <v>210</v>
       </c>
       <c r="H5" s="7">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="I5" s="7">
-        <v>93992</v>
+        <v>79280</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>170</v>
+        <v>211</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>213</v>
       </c>
       <c r="M5" s="7">
-        <v>298</v>
+        <v>238</v>
       </c>
       <c r="N5" s="7">
-        <v>189476</v>
+        <v>155027</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>173</v>
+        <v>214</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3045,102 +3588,102 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>305</v>
+        <v>178</v>
       </c>
       <c r="D6" s="7">
-        <v>202749</v>
+        <v>118394</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>312</v>
+        <v>203</v>
       </c>
       <c r="I6" s="7">
-        <v>193010</v>
+        <v>127009</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>617</v>
+        <v>381</v>
       </c>
       <c r="N6" s="7">
-        <v>395760</v>
+        <v>245403</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>91</v>
+        <v>234</v>
       </c>
       <c r="D7" s="7">
-        <v>61276</v>
+        <v>159127</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>176</v>
+        <v>217</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>177</v>
+        <v>218</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="H7" s="7">
-        <v>95</v>
+        <v>214</v>
       </c>
       <c r="I7" s="7">
-        <v>61993</v>
+        <v>136722</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>179</v>
+        <v>220</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>180</v>
+        <v>221</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>181</v>
+        <v>222</v>
       </c>
       <c r="M7" s="7">
-        <v>186</v>
+        <v>448</v>
       </c>
       <c r="N7" s="7">
-        <v>123270</v>
+        <v>295849</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>182</v>
+        <v>223</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,49 +3692,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="D8" s="7">
-        <v>164972</v>
+        <v>77737</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>185</v>
+        <v>226</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>186</v>
+        <v>227</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>187</v>
+        <v>228</v>
       </c>
       <c r="H8" s="7">
+        <v>93</v>
+      </c>
+      <c r="I8" s="7">
+        <v>58497</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="M8" s="7">
+        <v>208</v>
+      </c>
+      <c r="N8" s="7">
+        <v>136234</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="I8" s="7">
-        <v>152437</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="M8" s="7">
-        <v>469</v>
-      </c>
-      <c r="N8" s="7">
-        <v>317408</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>191</v>
-      </c>
       <c r="P8" s="7" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>193</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3200,102 +3743,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="D9" s="7">
-        <v>226248</v>
+        <v>236864</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="I9" s="7">
-        <v>214430</v>
+        <v>195219</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="N9" s="7">
-        <v>440678</v>
+        <v>432083</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="D10" s="7">
-        <v>67367</v>
+        <v>126089</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>194</v>
+        <v>235</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>195</v>
+        <v>236</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
-        <v>91</v>
+        <v>174</v>
       </c>
       <c r="I10" s="7">
-        <v>65108</v>
+        <v>121784</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>197</v>
+        <v>237</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>199</v>
+        <v>239</v>
       </c>
       <c r="M10" s="7">
-        <v>181</v>
+        <v>349</v>
       </c>
       <c r="N10" s="7">
-        <v>132475</v>
+        <v>247872</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>201</v>
+        <v>241</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,49 +3847,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>238</v>
+        <v>59</v>
       </c>
       <c r="D11" s="7">
-        <v>175537</v>
+        <v>42355</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>203</v>
+        <v>243</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>204</v>
+        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="H11" s="7">
-        <v>244</v>
+        <v>72</v>
       </c>
       <c r="I11" s="7">
-        <v>174728</v>
+        <v>49454</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>207</v>
+        <v>246</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>208</v>
+        <v>247</v>
       </c>
       <c r="M11" s="7">
-        <v>482</v>
+        <v>131</v>
       </c>
       <c r="N11" s="7">
-        <v>350265</v>
+        <v>91809</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>209</v>
+        <v>248</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>210</v>
+        <v>249</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3355,102 +3898,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>328</v>
+        <v>234</v>
       </c>
       <c r="D12" s="7">
-        <v>242904</v>
+        <v>168444</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>335</v>
+        <v>246</v>
       </c>
       <c r="I12" s="7">
-        <v>239836</v>
+        <v>171238</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>663</v>
+        <v>480</v>
       </c>
       <c r="N12" s="7">
-        <v>482740</v>
+        <v>339681</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>341</v>
+        <v>146</v>
       </c>
       <c r="D13" s="7">
-        <v>235909</v>
+        <v>108129</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>213</v>
+        <v>252</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>214</v>
+        <v>253</v>
       </c>
       <c r="H13" s="7">
-        <v>345</v>
+        <v>163</v>
       </c>
       <c r="I13" s="7">
-        <v>226120</v>
+        <v>114922</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>215</v>
+        <v>254</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>217</v>
+        <v>255</v>
       </c>
       <c r="M13" s="7">
-        <v>686</v>
+        <v>309</v>
       </c>
       <c r="N13" s="7">
-        <v>462029</v>
+        <v>223051</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>219</v>
+        <v>257</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>220</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3459,49 +4002,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>620</v>
+        <v>54</v>
       </c>
       <c r="D14" s="7">
-        <v>435992</v>
+        <v>40071</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>222</v>
+        <v>260</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="H14" s="7">
-        <v>629</v>
+        <v>55</v>
       </c>
       <c r="I14" s="7">
-        <v>421157</v>
+        <v>38888</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>262</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>263</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="M14" s="7">
-        <v>1249</v>
+        <v>109</v>
       </c>
       <c r="N14" s="7">
-        <v>857149</v>
+        <v>78959</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>264</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>228</v>
+        <v>265</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3510,55 +4053,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>200</v>
+      </c>
+      <c r="D15" s="7">
+        <v>148200</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>218</v>
+      </c>
+      <c r="I15" s="7">
+        <v>153810</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>418</v>
+      </c>
+      <c r="N15" s="7">
+        <v>302010</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>620</v>
+      </c>
+      <c r="D16" s="7">
+        <v>435992</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H16" s="7">
+        <v>629</v>
+      </c>
+      <c r="I16" s="7">
+        <v>421157</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="M16" s="7">
+        <v>1249</v>
+      </c>
+      <c r="N16" s="7">
+        <v>857149</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>341</v>
+      </c>
+      <c r="D17" s="7">
+        <v>235909</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H17" s="7">
+        <v>345</v>
+      </c>
+      <c r="I17" s="7">
+        <v>226120</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="M17" s="7">
+        <v>686</v>
+      </c>
+      <c r="N17" s="7">
+        <v>462029</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>961</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>671901</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>974</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>647277</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>1935</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1319178</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>29</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3571,8 +4275,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A26A6C-C468-481C-A041-78FF441EB25B}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F8C58B-7951-4245-891F-8F378AADD6FE}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3588,7 +4292,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>283</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3689,49 +4393,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>18786</v>
+        <v>4698</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>231</v>
+        <v>284</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>232</v>
+        <v>285</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
       <c r="H4" s="7">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>14472</v>
+        <v>5255</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>287</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>235</v>
+        <v>288</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>289</v>
       </c>
       <c r="M4" s="7">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="N4" s="7">
-        <v>33257</v>
+        <v>9953</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>237</v>
+        <v>290</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>238</v>
+        <v>291</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,49 +4444,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D5" s="7">
-        <v>8757</v>
+        <v>12973</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>240</v>
+        <v>293</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>241</v>
+        <v>294</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>242</v>
+        <v>295</v>
       </c>
       <c r="H5" s="7">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I5" s="7">
-        <v>8230</v>
+        <v>11076</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>243</v>
+        <v>296</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>244</v>
+        <v>297</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>245</v>
+        <v>298</v>
       </c>
       <c r="M5" s="7">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="N5" s="7">
-        <v>16988</v>
+        <v>24049</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>246</v>
+        <v>299</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>247</v>
+        <v>300</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>248</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3791,102 +4495,102 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D6" s="7">
-        <v>27543</v>
+        <v>17671</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="I6" s="7">
-        <v>22702</v>
+        <v>16331</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="N6" s="7">
-        <v>50245</v>
+        <v>34002</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D7" s="7">
-        <v>25834</v>
+        <v>9716</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>249</v>
+        <v>302</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>164</v>
+        <v>303</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>250</v>
+        <v>304</v>
       </c>
       <c r="H7" s="7">
+        <v>17</v>
+      </c>
+      <c r="I7" s="7">
+        <v>11341</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="M7" s="7">
         <v>34</v>
       </c>
-      <c r="I7" s="7">
-        <v>22709</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="M7" s="7">
-        <v>70</v>
-      </c>
       <c r="N7" s="7">
-        <v>48544</v>
+        <v>21057</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>254</v>
+        <v>308</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3895,49 +4599,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D8" s="7">
-        <v>12346</v>
+        <v>22898</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>258</v>
+        <v>312</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>313</v>
       </c>
       <c r="H8" s="7">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I8" s="7">
-        <v>12027</v>
+        <v>16609</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>259</v>
+        <v>314</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>260</v>
+        <v>315</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>261</v>
+        <v>316</v>
       </c>
       <c r="M8" s="7">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="N8" s="7">
-        <v>24373</v>
+        <v>39507</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>262</v>
+        <v>317</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>263</v>
+        <v>318</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>264</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,99 +4653,99 @@
         <v>53</v>
       </c>
       <c r="D9" s="7">
-        <v>38180</v>
+        <v>32614</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I9" s="7">
-        <v>34736</v>
+        <v>27950</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="N9" s="7">
-        <v>72917</v>
+        <v>60564</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="D10" s="7">
-        <v>42373</v>
+        <v>11032</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>265</v>
+        <v>320</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>266</v>
+        <v>321</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>267</v>
+        <v>322</v>
       </c>
       <c r="H10" s="7">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="I10" s="7">
-        <v>26620</v>
+        <v>11149</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>268</v>
+        <v>323</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>269</v>
+        <v>324</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="M10" s="7">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="N10" s="7">
-        <v>68993</v>
+        <v>22181</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,49 +4754,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D11" s="7">
-        <v>18329</v>
+        <v>24028</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>275</v>
+        <v>329</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="H11" s="7">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I11" s="7">
-        <v>15864</v>
+        <v>19320</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>279</v>
+        <v>332</v>
       </c>
       <c r="M11" s="7">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="N11" s="7">
-        <v>34193</v>
+        <v>43348</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>280</v>
+        <v>333</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>282</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,102 +4805,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="D12" s="7">
-        <v>60702</v>
+        <v>35060</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="I12" s="7">
-        <v>42484</v>
+        <v>30469</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="N12" s="7">
-        <v>103186</v>
+        <v>65529</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>132</v>
+        <v>17</v>
       </c>
       <c r="D13" s="7">
-        <v>86993</v>
+        <v>13986</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>283</v>
+        <v>336</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>284</v>
+        <v>337</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="H13" s="7">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I13" s="7">
-        <v>63801</v>
+        <v>8377</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>286</v>
+        <v>339</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>288</v>
+        <v>340</v>
       </c>
       <c r="M13" s="7">
-        <v>231</v>
+        <v>29</v>
       </c>
       <c r="N13" s="7">
-        <v>150794</v>
+        <v>22363</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>289</v>
+        <v>341</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>290</v>
+        <v>342</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,49 +4909,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D14" s="7">
-        <v>39432</v>
+        <v>27095</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>292</v>
+        <v>344</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>293</v>
+        <v>345</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>294</v>
+        <v>346</v>
       </c>
       <c r="H14" s="7">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="I14" s="7">
-        <v>36122</v>
+        <v>16796</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>295</v>
+        <v>347</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>296</v>
+        <v>348</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M14" s="7">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="N14" s="7">
-        <v>75554</v>
+        <v>43890</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>298</v>
+        <v>349</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>299</v>
+        <v>350</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>300</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4256,55 +4960,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>53</v>
+      </c>
+      <c r="D15" s="7">
+        <v>41081</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>37</v>
+      </c>
+      <c r="I15" s="7">
+        <v>25173</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>90</v>
+      </c>
+      <c r="N15" s="7">
+        <v>66253</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>56</v>
+      </c>
+      <c r="D16" s="7">
+        <v>39432</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="H16" s="7">
+        <v>54</v>
+      </c>
+      <c r="I16" s="7">
+        <v>36122</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="M16" s="7">
+        <v>110</v>
+      </c>
+      <c r="N16" s="7">
+        <v>75554</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>132</v>
+      </c>
+      <c r="D17" s="7">
+        <v>86993</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="H17" s="7">
+        <v>99</v>
+      </c>
+      <c r="I17" s="7">
+        <v>63801</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="M17" s="7">
+        <v>231</v>
+      </c>
+      <c r="N17" s="7">
+        <v>150794</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>188</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>126425</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>153</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>99923</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>341</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>226348</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>29</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP18A03-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP18A03-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A1236EA-B8F4-4732-829E-AAB1D380ABF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2AEE236-E54D-4202-AC2B-81FD93A5538C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{66C9DC7E-84B9-401F-A899-312D603C329B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{899D9C46-A28B-418A-9D95-77F78B1165AB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="370">
   <si>
     <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2007 (Tasa respuesta: 87,02%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>34,89%</t>
   </si>
   <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
   </si>
   <si>
     <t>44,77%</t>
   </si>
   <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
   </si>
   <si>
     <t>39,69%</t>
   </si>
   <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>65,11%</t>
   </si>
   <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
   </si>
   <si>
     <t>55,23%</t>
   </si>
   <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
   </si>
   <si>
     <t>60,31%</t>
   </si>
   <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1009 +140,1015 @@
     <t>67,6%</t>
   </si>
   <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2012 (Tasa respuesta: 94,0%)</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2016 (Tasa respuesta: 91,02%)</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
     <t>62,25%</t>
   </si>
   <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
   </si>
   <si>
     <t>37,75%</t>
   </si>
   <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
   </si>
   <si>
     <t>61,35%</t>
   </si>
   <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2012 (Tasa respuesta: 94,0%)</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2015 (Tasa respuesta: 91,02%)</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
+    <t>75,82%</t>
   </si>
   <si>
     <t>63,85%</t>
   </si>
   <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
   </si>
   <si>
     <t>66,62%</t>
   </si>
   <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
   </si>
 </sst>
 </file>
@@ -1554,7 +1560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357D1AAF-6E55-470A-81CF-AA01EB099A17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22E2343-CD3B-4F07-9F44-7CDDC2F78F5D}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2461,7 +2467,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DC79B3-D784-4BC2-9B5C-3A4B7BF1C5BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20589F0-F7F9-4FA6-8DE7-6F2A4E29FA53}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2773,10 +2779,10 @@
         <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,13 +2797,13 @@
         <v>81615</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H8" s="7">
         <v>111</v>
@@ -2806,13 +2812,13 @@
         <v>77871</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M8" s="7">
         <v>226</v>
@@ -2821,13 +2827,13 @@
         <v>159486</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>142</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2895,13 +2901,13 @@
         <v>110807</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H10" s="7">
         <v>153</v>
@@ -2910,13 +2916,13 @@
         <v>107513</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M10" s="7">
         <v>314</v>
@@ -2925,13 +2931,13 @@
         <v>218320</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2946,13 +2952,13 @@
         <v>40375</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H11" s="7">
         <v>61</v>
@@ -2961,13 +2967,13 @@
         <v>43617</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M11" s="7">
         <v>117</v>
@@ -2976,13 +2982,13 @@
         <v>83992</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,13 +3056,13 @@
         <v>117190</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H13" s="7">
         <v>168</v>
@@ -3065,13 +3071,13 @@
         <v>118556</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M13" s="7">
         <v>342</v>
@@ -3080,13 +3086,13 @@
         <v>235745</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,13 +3107,13 @@
         <v>46257</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H14" s="7">
         <v>49</v>
@@ -3116,13 +3122,13 @@
         <v>34842</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M14" s="7">
         <v>115</v>
@@ -3131,13 +3137,13 @@
         <v>81099</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3205,13 +3211,13 @@
         <v>468840</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H16" s="7">
         <v>628</v>
@@ -3220,13 +3226,13 @@
         <v>435678</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M16" s="7">
         <v>1297</v>
@@ -3235,13 +3241,13 @@
         <v>904518</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3256,13 +3262,13 @@
         <v>243392</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H17" s="7">
         <v>333</v>
@@ -3271,13 +3277,13 @@
         <v>232341</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M17" s="7">
         <v>676</v>
@@ -3286,13 +3292,13 @@
         <v>475733</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,7 +3374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CE1348E-FE49-4D46-BB3C-B07764BC3430}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{903DCFDB-F1E4-4E93-8A0B-8CC311E85F58}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3385,7 +3391,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3492,13 +3498,13 @@
         <v>42647</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H4" s="7">
         <v>78</v>
@@ -3507,13 +3513,13 @@
         <v>47729</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M4" s="7">
         <v>143</v>
@@ -3522,13 +3528,13 @@
         <v>90376</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3543,13 +3549,13 @@
         <v>75747</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H5" s="7">
         <v>125</v>
@@ -3558,13 +3564,13 @@
         <v>79280</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M5" s="7">
         <v>238</v>
@@ -3573,13 +3579,13 @@
         <v>155027</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3647,13 +3653,13 @@
         <v>159127</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H7" s="7">
         <v>214</v>
@@ -3662,13 +3668,13 @@
         <v>136722</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M7" s="7">
         <v>448</v>
@@ -3677,13 +3683,13 @@
         <v>295849</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3698,13 +3704,13 @@
         <v>77737</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H8" s="7">
         <v>93</v>
@@ -3713,13 +3719,13 @@
         <v>58497</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M8" s="7">
         <v>208</v>
@@ -3728,13 +3734,13 @@
         <v>136234</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3802,13 +3808,13 @@
         <v>126089</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H10" s="7">
         <v>174</v>
@@ -3817,13 +3823,13 @@
         <v>121784</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M10" s="7">
         <v>349</v>
@@ -3832,13 +3838,13 @@
         <v>247872</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,10 +3859,10 @@
         <v>42355</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>244</v>
@@ -3975,10 +3981,10 @@
         <v>254</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>182</v>
+        <v>255</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M13" s="7">
         <v>309</v>
@@ -3987,13 +3993,13 @@
         <v>223051</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,13 +4014,13 @@
         <v>40071</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H14" s="7">
         <v>55</v>
@@ -4023,13 +4029,13 @@
         <v>38888</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>190</v>
+        <v>265</v>
       </c>
       <c r="M14" s="7">
         <v>109</v>
@@ -4038,13 +4044,13 @@
         <v>78959</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,13 +4118,13 @@
         <v>435992</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H16" s="7">
         <v>629</v>
@@ -4127,13 +4133,13 @@
         <v>421157</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M16" s="7">
         <v>1249</v>
@@ -4142,13 +4148,13 @@
         <v>857149</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>163</v>
+        <v>275</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,13 +4169,13 @@
         <v>235909</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H17" s="7">
         <v>345</v>
@@ -4178,13 +4184,13 @@
         <v>226120</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="M17" s="7">
         <v>686</v>
@@ -4193,13 +4199,13 @@
         <v>462029</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>173</v>
+        <v>284</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4275,7 +4281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F8C58B-7951-4245-891F-8F378AADD6FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5698D2C-54F6-4351-98A5-8BB28243FA82}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4292,7 +4298,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4399,13 +4405,13 @@
         <v>4698</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -4414,13 +4420,13 @@
         <v>5255</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -4429,13 +4435,13 @@
         <v>9953</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,13 +4456,13 @@
         <v>12973</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -4465,13 +4471,13 @@
         <v>11076</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="M5" s="7">
         <v>50</v>
@@ -4480,13 +4486,13 @@
         <v>24049</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,13 +4560,13 @@
         <v>9716</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>302</v>
+        <v>87</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -4569,13 +4575,13 @@
         <v>11341</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>306</v>
+        <v>64</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
@@ -4584,13 +4590,13 @@
         <v>21057</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,13 +4611,13 @@
         <v>22898</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>311</v>
+        <v>77</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H8" s="7">
         <v>26</v>
@@ -4620,13 +4626,13 @@
         <v>16609</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>316</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>62</v>
@@ -4715,7 +4721,7 @@
         <v>321</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>322</v>
+        <v>114</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -4724,13 +4730,13 @@
         <v>11149</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -4763,10 +4769,10 @@
         <v>328</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="H11" s="7">
         <v>27</v>
@@ -4775,10 +4781,10 @@
         <v>19320</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>332</v>
@@ -4882,10 +4888,10 @@
         <v>339</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>288</v>
+        <v>340</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
@@ -4894,13 +4900,13 @@
         <v>22363</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4915,13 +4921,13 @@
         <v>27095</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -4930,13 +4936,13 @@
         <v>16796</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>298</v>
+        <v>350</v>
       </c>
       <c r="M14" s="7">
         <v>61</v>
@@ -4945,13 +4951,13 @@
         <v>43890</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5022,10 +5028,10 @@
         <v>66</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H16" s="7">
         <v>54</v>
@@ -5034,13 +5040,13 @@
         <v>36122</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M16" s="7">
         <v>110</v>
@@ -5049,13 +5055,13 @@
         <v>75554</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5073,10 +5079,10 @@
         <v>57</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="H17" s="7">
         <v>99</v>
@@ -5085,13 +5091,13 @@
         <v>63801</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="M17" s="7">
         <v>231</v>
@@ -5100,13 +5106,13 @@
         <v>150794</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP18A03-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP18A03-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2AEE236-E54D-4202-AC2B-81FD93A5538C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E275D7F5-B21D-47B8-877A-316A6D4EF9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{899D9C46-A28B-418A-9D95-77F78B1165AB}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C9E6A3BF-47E8-442A-AA3D-2B15B2A439B0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -44,10 +44,10 @@
     <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2007 (Tasa respuesta: 87,02%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,61 +74,61 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
     <t>34,89%</t>
   </si>
   <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
   </si>
   <si>
     <t>39,69%</t>
   </si>
   <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
     <t>65,11%</t>
   </si>
   <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
   </si>
   <si>
     <t>60,31%</t>
   </si>
   <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,226 +137,220 @@
     <t>3-7</t>
   </si>
   <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
     <t>67,6%</t>
   </si>
   <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
   </si>
   <si>
     <t>64,41%</t>
   </si>
   <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
   </si>
   <si>
     <t>32,4%</t>
   </si>
   <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
   </si>
   <si>
     <t>35,59%</t>
   </si>
   <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
     <t>71,76%</t>
   </si>
   <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
   </si>
   <si>
     <t>68,81%</t>
   </si>
   <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
   </si>
   <si>
     <t>28,24%</t>
   </si>
   <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
   </si>
   <si>
     <t>31,19%</t>
   </si>
   <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
     <t>73,69%</t>
   </si>
   <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
   </si>
   <si>
     <t>74,25%</t>
   </si>
   <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
   </si>
   <si>
     <t>26,31%</t>
   </si>
   <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
   </si>
   <si>
     <t>25,75%</t>
   </si>
   <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
   </si>
   <si>
     <t>64,36%</t>
   </si>
   <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
   </si>
   <si>
     <t>63,6%</t>
   </si>
   <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
   </si>
   <si>
     <t>35,64%</t>
   </si>
   <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
   </si>
   <si>
     <t>36,4%</t>
   </si>
   <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
+    <t>38,62%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -365,289 +359,295 @@
     <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2012 (Tasa respuesta: 94,0%)</t>
   </si>
   <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
     <t>47,25%</t>
   </si>
   <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
   </si>
   <si>
     <t>46,78%</t>
   </si>
   <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
   </si>
   <si>
     <t>52,75%</t>
   </si>
   <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
   </si>
   <si>
     <t>53,22%</t>
   </si>
   <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
   </si>
   <si>
     <t>68,01%</t>
   </si>
   <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
   </si>
   <si>
     <t>66,57%</t>
   </si>
   <si>
-    <t>70,13%</t>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
   </si>
   <si>
     <t>31,99%</t>
   </si>
   <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
   </si>
   <si>
     <t>33,43%</t>
   </si>
   <si>
-    <t>29,87%</t>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
   </si>
   <si>
     <t>73,29%</t>
   </si>
   <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
   </si>
   <si>
     <t>72,22%</t>
   </si>
   <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
   </si>
   <si>
     <t>26,71%</t>
   </si>
   <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
   </si>
   <si>
     <t>27,78%</t>
   </si>
   <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
   </si>
   <si>
     <t>71,7%</t>
   </si>
   <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
   </si>
   <si>
     <t>74,4%</t>
   </si>
   <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
   </si>
   <si>
     <t>28,3%</t>
   </si>
   <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
   </si>
   <si>
     <t>25,6%</t>
   </si>
   <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
   </si>
   <si>
     <t>65,83%</t>
   </si>
   <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
   </si>
   <si>
     <t>65,53%</t>
   </si>
   <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
   </si>
   <si>
     <t>34,17%</t>
   </si>
   <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
   </si>
   <si>
     <t>34,47%</t>
   </si>
   <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
   </si>
   <si>
     <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2016 (Tasa respuesta: 91,02%)</t>
   </si>
   <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
     <t>36,02%</t>
   </si>
   <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
   </si>
   <si>
     <t>36,83%</t>
@@ -656,499 +656,499 @@
     <t>32,08%</t>
   </si>
   <si>
-    <t>41,67%</t>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
   </si>
   <si>
     <t>63,98%</t>
   </si>
   <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
   </si>
   <si>
     <t>63,17%</t>
   </si>
   <si>
-    <t>58,33%</t>
+    <t>57,66%</t>
   </si>
   <si>
     <t>67,92%</t>
   </si>
   <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
     <t>67,18%</t>
   </si>
   <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
   </si>
   <si>
     <t>68,47%</t>
   </si>
   <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
   </si>
   <si>
     <t>32,82%</t>
   </si>
   <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
   </si>
   <si>
     <t>31,53%</t>
   </si>
   <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
   </si>
   <si>
     <t>74,86%</t>
   </si>
   <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
   </si>
   <si>
     <t>72,97%</t>
   </si>
   <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
   </si>
   <si>
     <t>25,14%</t>
   </si>
   <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
   </si>
   <si>
     <t>27,03%</t>
   </si>
   <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
   </si>
   <si>
     <t>72,96%</t>
   </si>
   <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
   </si>
   <si>
     <t>73,86%</t>
   </si>
   <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
   </si>
   <si>
     <t>27,04%</t>
   </si>
   <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
   </si>
   <si>
     <t>26,14%</t>
   </si>
   <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
   </si>
   <si>
     <t>64,89%</t>
   </si>
   <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
   </si>
   <si>
     <t>35,11%</t>
   </si>
   <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
   </si>
   <si>
     <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2023 (Tasa respuesta: 17,76%)</t>
   </si>
   <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
   </si>
 </sst>
 </file>
@@ -1560,7 +1560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22E2343-CD3B-4F07-9F44-7CDDC2F78F5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFA20A2-C5E3-431F-BDC1-FB2CB288B856}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1678,10 +1678,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D4" s="7">
-        <v>37567</v>
+        <v>45537</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1693,10 +1693,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="I4" s="7">
-        <v>45537</v>
+        <v>37567</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1729,10 +1729,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D5" s="7">
-        <v>70114</v>
+        <v>56177</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1744,10 +1744,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="I5" s="7">
-        <v>56177</v>
+        <v>70114</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1780,25 +1780,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>155</v>
+      </c>
+      <c r="D6" s="7">
+        <v>101714</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>162</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>107681</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>155</v>
-      </c>
-      <c r="I6" s="7">
-        <v>101714</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1833,10 +1833,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="D7" s="7">
-        <v>157786</v>
+        <v>141724</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1848,10 +1848,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="I7" s="7">
-        <v>141724</v>
+        <v>157786</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1884,10 +1884,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="D8" s="7">
-        <v>75616</v>
+        <v>89862</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1899,10 +1899,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="I8" s="7">
-        <v>89862</v>
+        <v>75616</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1935,25 +1935,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>346</v>
+      </c>
+      <c r="D9" s="7">
+        <v>231586</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>352</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>233402</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>346</v>
-      </c>
-      <c r="I9" s="7">
-        <v>231586</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1988,10 +1988,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="D10" s="7">
-        <v>83002</v>
+        <v>69555</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2003,10 +2003,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="I10" s="7">
-        <v>69555</v>
+        <v>83002</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2039,10 +2039,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D11" s="7">
-        <v>32669</v>
+        <v>36475</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2054,10 +2054,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I11" s="7">
-        <v>36475</v>
+        <v>32669</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2090,25 +2090,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>158</v>
+      </c>
+      <c r="D12" s="7">
+        <v>106030</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>173</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>115671</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>158</v>
-      </c>
-      <c r="I12" s="7">
-        <v>106030</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2143,10 +2143,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D13" s="7">
-        <v>123247</v>
+        <v>118769</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2158,10 +2158,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="I13" s="7">
-        <v>118769</v>
+        <v>123247</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2194,10 +2194,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D14" s="7">
-        <v>44013</v>
+        <v>39918</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2209,10 +2209,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="I14" s="7">
-        <v>39918</v>
+        <v>44013</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2245,25 +2245,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>233</v>
+      </c>
+      <c r="D15" s="7">
+        <v>158687</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>252</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>167260</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>233</v>
-      </c>
-      <c r="I15" s="7">
-        <v>158687</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2298,10 +2298,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>603</v>
+        <v>557</v>
       </c>
       <c r="D16" s="7">
-        <v>401602</v>
+        <v>375587</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>88</v>
@@ -2313,10 +2313,10 @@
         <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>557</v>
+        <v>603</v>
       </c>
       <c r="I16" s="7">
-        <v>375587</v>
+        <v>401602</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>91</v>
@@ -2340,7 +2340,7 @@
         <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2349,34 +2349,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>335</v>
+      </c>
+      <c r="D17" s="7">
+        <v>222431</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" s="7">
         <v>336</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>222412</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H17" s="7">
-        <v>335</v>
-      </c>
-      <c r="I17" s="7">
-        <v>222431</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>671</v>
@@ -2385,13 +2385,13 @@
         <v>444844</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2400,25 +2400,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>892</v>
+      </c>
+      <c r="D18" s="7">
+        <v>598018</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>939</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>624014</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>892</v>
-      </c>
-      <c r="I18" s="7">
-        <v>598018</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2467,7 +2467,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20589F0-F7F9-4FA6-8DE7-6F2A4E29FA53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8AC8DCA-751A-4507-9D5C-98D777C68339}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2484,7 +2484,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2585,34 +2585,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>99</v>
+      </c>
+      <c r="D4" s="7">
+        <v>65551</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" s="7">
         <v>96</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>67303</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H4" s="7">
-        <v>99</v>
-      </c>
-      <c r="I4" s="7">
-        <v>65551</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M4" s="7">
         <v>195</v>
@@ -2621,13 +2621,13 @@
         <v>132854</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,34 +2636,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>112</v>
+      </c>
+      <c r="D5" s="7">
+        <v>76011</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" s="7">
         <v>106</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>75145</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H5" s="7">
-        <v>112</v>
-      </c>
-      <c r="I5" s="7">
-        <v>76011</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M5" s="7">
         <v>218</v>
@@ -2672,13 +2672,13 @@
         <v>151156</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,25 +2687,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>211</v>
+      </c>
+      <c r="D6" s="7">
+        <v>141562</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>202</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>142448</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>211</v>
-      </c>
-      <c r="I6" s="7">
-        <v>141562</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2740,34 +2740,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>208</v>
+      </c>
+      <c r="D7" s="7">
+        <v>144059</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" s="7">
         <v>238</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>173541</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H7" s="7">
-        <v>208</v>
-      </c>
-      <c r="I7" s="7">
-        <v>144059</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M7" s="7">
         <v>446</v>
@@ -2776,13 +2776,13 @@
         <v>317600</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,34 +2791,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>111</v>
+      </c>
+      <c r="D8" s="7">
+        <v>77871</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H8" s="7">
         <v>115</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>81615</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="H8" s="7">
-        <v>111</v>
-      </c>
-      <c r="I8" s="7">
-        <v>77871</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M8" s="7">
         <v>226</v>
@@ -2827,13 +2827,13 @@
         <v>159486</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2842,25 +2842,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>319</v>
+      </c>
+      <c r="D9" s="7">
+        <v>221930</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>353</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>255156</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>319</v>
-      </c>
-      <c r="I9" s="7">
-        <v>221930</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2895,10 +2895,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D10" s="7">
-        <v>110807</v>
+        <v>107513</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>142</v>
@@ -2910,10 +2910,10 @@
         <v>144</v>
       </c>
       <c r="H10" s="7">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="I10" s="7">
-        <v>107513</v>
+        <v>110807</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>145</v>
@@ -2946,10 +2946,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D11" s="7">
-        <v>40375</v>
+        <v>43617</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>151</v>
@@ -2961,10 +2961,10 @@
         <v>153</v>
       </c>
       <c r="H11" s="7">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I11" s="7">
-        <v>43617</v>
+        <v>40375</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>154</v>
@@ -2997,25 +2997,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>214</v>
+      </c>
+      <c r="D12" s="7">
+        <v>151130</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>217</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>151182</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>214</v>
-      </c>
-      <c r="I12" s="7">
-        <v>151130</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3050,10 +3050,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D13" s="7">
-        <v>117190</v>
+        <v>118556</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>160</v>
@@ -3065,10 +3065,10 @@
         <v>162</v>
       </c>
       <c r="H13" s="7">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="I13" s="7">
-        <v>118556</v>
+        <v>117190</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>163</v>
@@ -3101,10 +3101,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="D14" s="7">
-        <v>46257</v>
+        <v>34842</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>169</v>
@@ -3116,10 +3116,10 @@
         <v>171</v>
       </c>
       <c r="H14" s="7">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="I14" s="7">
-        <v>34842</v>
+        <v>46257</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>172</v>
@@ -3152,25 +3152,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>217</v>
+      </c>
+      <c r="D15" s="7">
+        <v>153398</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>240</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>163447</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>217</v>
-      </c>
-      <c r="I15" s="7">
-        <v>153398</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3205,10 +3205,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>669</v>
+        <v>628</v>
       </c>
       <c r="D16" s="7">
-        <v>468840</v>
+        <v>435678</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>178</v>
@@ -3220,10 +3220,10 @@
         <v>180</v>
       </c>
       <c r="H16" s="7">
-        <v>628</v>
+        <v>669</v>
       </c>
       <c r="I16" s="7">
-        <v>435678</v>
+        <v>468840</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>181</v>
@@ -3256,10 +3256,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="D17" s="7">
-        <v>243392</v>
+        <v>232341</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>187</v>
@@ -3271,10 +3271,10 @@
         <v>189</v>
       </c>
       <c r="H17" s="7">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="I17" s="7">
-        <v>232341</v>
+        <v>243392</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>190</v>
@@ -3307,25 +3307,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>961</v>
+      </c>
+      <c r="D18" s="7">
+        <v>668019</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1012</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>712232</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>961</v>
-      </c>
-      <c r="I18" s="7">
-        <v>668019</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3354,7 +3354,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3374,7 +3374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{903DCFDB-F1E4-4E93-8A0B-8CC311E85F58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E953BFC-D738-406B-BD83-CA1EEF2FE6EC}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3492,10 +3492,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D4" s="7">
-        <v>42647</v>
+        <v>47729</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>197</v>
@@ -3507,10 +3507,10 @@
         <v>199</v>
       </c>
       <c r="H4" s="7">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="I4" s="7">
-        <v>47729</v>
+        <v>42647</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>200</v>
@@ -3543,10 +3543,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="D5" s="7">
-        <v>75747</v>
+        <v>79280</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>206</v>
@@ -3558,10 +3558,10 @@
         <v>208</v>
       </c>
       <c r="H5" s="7">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="I5" s="7">
-        <v>79280</v>
+        <v>75747</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>209</v>
@@ -3594,25 +3594,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>203</v>
+      </c>
+      <c r="D6" s="7">
+        <v>127009</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>178</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>118394</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>203</v>
-      </c>
-      <c r="I6" s="7">
-        <v>127009</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3647,10 +3647,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="D7" s="7">
-        <v>159127</v>
+        <v>136722</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>215</v>
@@ -3662,10 +3662,10 @@
         <v>217</v>
       </c>
       <c r="H7" s="7">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="I7" s="7">
-        <v>136722</v>
+        <v>159127</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>218</v>
@@ -3698,10 +3698,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="D8" s="7">
-        <v>77737</v>
+        <v>58497</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>224</v>
@@ -3713,10 +3713,10 @@
         <v>226</v>
       </c>
       <c r="H8" s="7">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="I8" s="7">
-        <v>58497</v>
+        <v>77737</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>227</v>
@@ -3749,25 +3749,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>307</v>
+      </c>
+      <c r="D9" s="7">
+        <v>195219</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>349</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>236864</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>307</v>
-      </c>
-      <c r="I9" s="7">
-        <v>195219</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3802,10 +3802,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D10" s="7">
-        <v>126089</v>
+        <v>121784</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>233</v>
@@ -3817,10 +3817,10 @@
         <v>235</v>
       </c>
       <c r="H10" s="7">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I10" s="7">
-        <v>121784</v>
+        <v>126089</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>236</v>
@@ -3853,10 +3853,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D11" s="7">
-        <v>42355</v>
+        <v>49454</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>242</v>
@@ -3868,10 +3868,10 @@
         <v>244</v>
       </c>
       <c r="H11" s="7">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="I11" s="7">
-        <v>49454</v>
+        <v>42355</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>245</v>
@@ -3904,25 +3904,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>246</v>
+      </c>
+      <c r="D12" s="7">
+        <v>171238</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>234</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>168444</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>246</v>
-      </c>
-      <c r="I12" s="7">
-        <v>171238</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3957,10 +3957,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="D13" s="7">
-        <v>108129</v>
+        <v>114922</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>251</v>
@@ -3969,22 +3969,22 @@
         <v>252</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="7">
+        <v>146</v>
+      </c>
+      <c r="I13" s="7">
+        <v>108129</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="H13" s="7">
-        <v>163</v>
-      </c>
-      <c r="I13" s="7">
-        <v>114922</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M13" s="7">
         <v>309</v>
@@ -3993,13 +3993,13 @@
         <v>223051</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,34 +4008,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>55</v>
+      </c>
+      <c r="D14" s="7">
+        <v>38888</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H14" s="7">
         <v>54</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>40071</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="H14" s="7">
-        <v>55</v>
-      </c>
-      <c r="I14" s="7">
-        <v>38888</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M14" s="7">
         <v>109</v>
@@ -4044,13 +4044,13 @@
         <v>78959</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4059,25 +4059,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>218</v>
+      </c>
+      <c r="D15" s="7">
+        <v>153810</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>200</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>148200</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>218</v>
-      </c>
-      <c r="I15" s="7">
-        <v>153810</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4112,34 +4112,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>629</v>
+      </c>
+      <c r="D16" s="7">
+        <v>421157</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H16" s="7">
         <v>620</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>435992</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="H16" s="7">
-        <v>629</v>
-      </c>
-      <c r="I16" s="7">
-        <v>421157</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M16" s="7">
         <v>1249</v>
@@ -4148,13 +4148,13 @@
         <v>857149</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>275</v>
+        <v>216</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,34 +4163,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>345</v>
+      </c>
+      <c r="D17" s="7">
+        <v>226120</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H17" s="7">
         <v>341</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>235909</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="H17" s="7">
-        <v>345</v>
-      </c>
-      <c r="I17" s="7">
-        <v>226120</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M17" s="7">
         <v>686</v>
@@ -4199,13 +4199,13 @@
         <v>462029</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>284</v>
+        <v>226</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,25 +4214,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>974</v>
+      </c>
+      <c r="D18" s="7">
+        <v>647277</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>961</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>671901</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>974</v>
-      </c>
-      <c r="I18" s="7">
-        <v>647277</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4261,7 +4261,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -4281,7 +4281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5698D2C-54F6-4351-98A5-8BB28243FA82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12FE27C-CA9F-45F0-A4A4-093318D83BA6}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4298,7 +4298,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4399,49 +4399,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7">
+        <v>5229</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H4" s="7">
         <v>9</v>
       </c>
-      <c r="D4" s="7">
-        <v>4698</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="I4" s="7">
+        <v>5247</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="H4" s="7">
-        <v>11</v>
-      </c>
-      <c r="I4" s="7">
-        <v>5255</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
       </c>
       <c r="N4" s="7">
-        <v>9953</v>
+        <v>10476</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,49 +4450,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>21</v>
+      </c>
+      <c r="D5" s="7">
+        <v>11066</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="H5" s="7">
         <v>29</v>
       </c>
-      <c r="D5" s="7">
-        <v>12973</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="I5" s="7">
+        <v>13200</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="H5" s="7">
-        <v>21</v>
-      </c>
-      <c r="I5" s="7">
-        <v>11076</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M5" s="7">
         <v>50</v>
       </c>
       <c r="N5" s="7">
-        <v>24049</v>
+        <v>24266</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4501,25 +4501,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>32</v>
+      </c>
+      <c r="D6" s="7">
+        <v>16295</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>38</v>
       </c>
-      <c r="D6" s="7">
-        <v>17671</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>32</v>
-      </c>
       <c r="I6" s="7">
-        <v>16331</v>
+        <v>18447</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4534,7 +4534,7 @@
         <v>70</v>
       </c>
       <c r="N6" s="7">
-        <v>34002</v>
+        <v>34742</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4557,46 +4557,46 @@
         <v>17</v>
       </c>
       <c r="D7" s="7">
-        <v>9716</v>
+        <v>11278</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>87</v>
+        <v>302</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
       </c>
       <c r="I7" s="7">
-        <v>11341</v>
+        <v>10099</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>64</v>
+        <v>306</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
       </c>
       <c r="N7" s="7">
-        <v>21057</v>
+        <v>21377</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,40 +4605,40 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>26</v>
+      </c>
+      <c r="D8" s="7">
+        <v>16920</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="H8" s="7">
         <v>36</v>
       </c>
-      <c r="D8" s="7">
-        <v>22898</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="I8" s="7">
+        <v>23629</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="H8" s="7">
-        <v>26</v>
-      </c>
-      <c r="I8" s="7">
-        <v>16609</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>62</v>
       </c>
       <c r="N8" s="7">
-        <v>39507</v>
+        <v>40548</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>317</v>
@@ -4656,25 +4656,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>43</v>
+      </c>
+      <c r="D9" s="7">
+        <v>28198</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>53</v>
       </c>
-      <c r="D9" s="7">
-        <v>32614</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>43</v>
-      </c>
       <c r="I9" s="7">
-        <v>27950</v>
+        <v>33728</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4689,7 +4689,7 @@
         <v>96</v>
       </c>
       <c r="N9" s="7">
-        <v>60564</v>
+        <v>61925</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4709,10 +4709,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" s="7">
-        <v>11032</v>
+        <v>12356</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>320</v>
@@ -4721,37 +4721,37 @@
         <v>321</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>114</v>
+        <v>322</v>
       </c>
       <c r="H10" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I10" s="7">
-        <v>11149</v>
+        <v>12012</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
       </c>
       <c r="N10" s="7">
-        <v>22181</v>
+        <v>24368</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,25 +4760,25 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D11" s="7">
-        <v>24028</v>
+        <v>18940</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>123</v>
+        <v>320</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>329</v>
       </c>
       <c r="H11" s="7">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I11" s="7">
-        <v>19320</v>
+        <v>24859</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>330</v>
@@ -4793,7 +4793,7 @@
         <v>58</v>
       </c>
       <c r="N11" s="7">
-        <v>43348</v>
+        <v>43799</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>333</v>
@@ -4811,25 +4811,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>41</v>
+      </c>
+      <c r="D12" s="7">
+        <v>31296</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>44</v>
       </c>
-      <c r="D12" s="7">
-        <v>35060</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>41</v>
-      </c>
       <c r="I12" s="7">
-        <v>30469</v>
+        <v>36871</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4844,7 +4844,7 @@
         <v>85</v>
       </c>
       <c r="N12" s="7">
-        <v>65529</v>
+        <v>68167</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4864,10 +4864,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D13" s="7">
-        <v>13986</v>
+        <v>8293</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>336</v>
@@ -4879,10 +4879,10 @@
         <v>338</v>
       </c>
       <c r="H13" s="7">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I13" s="7">
-        <v>8377</v>
+        <v>14786</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>339</v>
@@ -4897,7 +4897,7 @@
         <v>29</v>
       </c>
       <c r="N13" s="7">
-        <v>22363</v>
+        <v>23079</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>342</v>
@@ -4915,10 +4915,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D14" s="7">
-        <v>27095</v>
+        <v>16233</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>345</v>
@@ -4930,10 +4930,10 @@
         <v>347</v>
       </c>
       <c r="H14" s="7">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I14" s="7">
-        <v>16796</v>
+        <v>27760</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>348</v>
@@ -4948,7 +4948,7 @@
         <v>61</v>
       </c>
       <c r="N14" s="7">
-        <v>43890</v>
+        <v>43992</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>351</v>
@@ -4966,25 +4966,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>37</v>
+      </c>
+      <c r="D15" s="7">
+        <v>24526</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>53</v>
       </c>
-      <c r="D15" s="7">
-        <v>41081</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>37</v>
-      </c>
       <c r="I15" s="7">
-        <v>25173</v>
+        <v>42546</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4999,7 +4999,7 @@
         <v>90</v>
       </c>
       <c r="N15" s="7">
-        <v>66253</v>
+        <v>67071</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5019,13 +5019,13 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D16" s="7">
-        <v>39432</v>
+        <v>37155</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>66</v>
+        <v>141</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>354</v>
@@ -5034,10 +5034,10 @@
         <v>355</v>
       </c>
       <c r="H16" s="7">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I16" s="7">
-        <v>36122</v>
+        <v>42144</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>356</v>
@@ -5052,7 +5052,7 @@
         <v>110</v>
       </c>
       <c r="N16" s="7">
-        <v>75554</v>
+        <v>79300</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>359</v>
@@ -5070,13 +5070,13 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="D17" s="7">
-        <v>86993</v>
+        <v>63159</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>362</v>
@@ -5085,10 +5085,10 @@
         <v>363</v>
       </c>
       <c r="H17" s="7">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="I17" s="7">
-        <v>63801</v>
+        <v>89448</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>364</v>
@@ -5103,7 +5103,7 @@
         <v>231</v>
       </c>
       <c r="N17" s="7">
-        <v>150794</v>
+        <v>152606</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>367</v>
@@ -5121,25 +5121,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>153</v>
+      </c>
+      <c r="D18" s="7">
+        <v>100314</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>188</v>
       </c>
-      <c r="D18" s="7">
-        <v>126425</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>153</v>
-      </c>
       <c r="I18" s="7">
-        <v>99923</v>
+        <v>131592</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5154,7 +5154,7 @@
         <v>341</v>
       </c>
       <c r="N18" s="7">
-        <v>226348</v>
+        <v>231906</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5168,7 +5168,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
